--- a/public/documents/Unconfirmed-Revit.xlsx
+++ b/public/documents/Unconfirmed-Revit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139" count="139">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15" count="15">
   <x:si>
     <x:t>name</x:t>
   </x:si>
@@ -40,6 +40,525 @@
     <x:t>teamId</x:t>
   </x:si>
   <x:si>
+    <x:t>Bhoye sudha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9714708122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160223106002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Civil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sudhabhoye63@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GEC PATAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK506701</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ekta patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9726159466</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150220106014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>patelekta1997@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK726546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rajani Hemal Laxmikant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9427267162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150310106092</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B.E Civil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rajanihemal1@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lukhdhirji engineering college,morbi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK228198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khushbu gandhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9512504674</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150220106015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kgandhi678@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK199785</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BADGUJAR DEEPAK KESHAVBHAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9904139100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150600119002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MECHANICAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DIPAK228727@GMAIL.COM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GOVERNMENT ENGINEERING COLLEGE GODHRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK034921</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KALATHIYA YAGNIK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9924634808</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160973119007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mechanical engg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YAGNIKPATEL3622@GMAIL.COM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARWADI EDUCATION FOUNDATION'S GROUP OF INSTITUTIONS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK901883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VALA AJAYSINH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9157188940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160973106012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIVIL ENGG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ajayvala69@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK454831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vinothan sundaralingam</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8141246393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150280106127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vsvinothan.vv@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L. D. COLLEGE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK804512</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upadhyay Swapnil Ratanlal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9712370500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141030106024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>civil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>swapnilupadhyay24697@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OM INSTITUTE OF TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK919203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nihar patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8347776689</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161310109041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Electrical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>niharpatel.ele16@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adani Institute of Infrastructure Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK531035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kiran Sofia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9978145966</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150770106024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dodiyakiran12@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SILVER OAK COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK076732</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VATSAL SHAH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8128389693</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150990119041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mechanical</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vatsalshah7597@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHROFF S R ROTARY INSTITUTE OF CHEMICAL TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK956032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KASODARIYA MEET</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9924832323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161163119519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kasodariyameet@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARWADI EDUCATION FOUNDATION - FACULTY OF PG STUDIES &amp; RES. IN ENGG. &amp; TECH.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK899277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pinkal patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8980954707</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150990119035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pinkalpatel717@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK282172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kapadiya mugdhaxi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9033164269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150170124018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Power electronics</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mugdhaxikapadiya99@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VISHWAKARMA GOVERNMENT ENGINEERING COLLEGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK909286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Induni lakshika abeysinghe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9726937731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150280106129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>induniabeysinghe@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK980065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Parekh Dhaval Balkrishna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9978435436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>141030106011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Civil Engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dhavalparekh3298@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK477527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saurabh Rana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7405852597</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140330106100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Civil engineering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rsaurabh9608@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAHATMA GANDHI INSTITUTE OF TECHNICAL EDUCATION &amp; RESEARCH CENTRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK970969</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karan Patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7383752677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>161250106020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BE. Civil ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>karanpatel12908@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHREE SWAMINARAYAN INSTITUTE OF TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK808849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gabani Milan Ganeshbhai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9924080943</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160433106011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>milangabani58@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SHANTILAL SHAH ENGINEERING COLLEGE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK245827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandupama Wanniarachchi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7573904725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150280106128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sandupama95@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK756335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>utkarsh gandhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8200386005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150990119007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UTKARSHGANDHI13@GMAIL.COM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK534671</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAY PATEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8347243800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150990119028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jaypatel221197@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK427390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>heet patel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7874425073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150990119026</x:t>
+  </x:si>
+  <x:si>
+    <x:t>heetpatel146@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK927292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hanee suthar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9727105263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150220106060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>honey16998@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK558827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Urvish shah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9638858516</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160123109016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>urvishshah34@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gandhinager institute of technology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK543028</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ubhadiya bhavin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7048386189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150170124057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bhavinpatel98346.bp3@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK227347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nishant Parmar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9638689831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>150833106034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>nitsparmar7@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DR. SUBHASH TECHNICAL CAMPUS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK571776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rajanaihemal1@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK308992</x:t>
+  </x:si>
+  <x:si>
     <x:t>PATEL PRATIK</x:t>
   </x:si>
   <x:si>
@@ -52,385 +571,43 @@
     <x:t>MECHANIAL ENGG</x:t>
   </x:si>
   <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
     <x:t>patelpratik361998@gmail.com</x:t>
   </x:si>
   <x:si>
-    <x:t>MARWADI EDUCATION FOUNDATION - FACULTY OF PG STUDIES &amp; RES. IN ENGG. &amp; TECH.</x:t>
-  </x:si>
-  <x:si>
     <x:t>WK481934</x:t>
   </x:si>
   <x:si>
-    <x:t>Rajani Hemal Laxmikant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9427267162</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150310106092</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B.E Civil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rajanaihemal1@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Lukhdhirji engineering college,morbi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK308992</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ubhadiya bhavin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7048386189</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150170124057</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Power electronics</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bhavinpatel98346.bp3@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VISHWAKARMA GOVERNMENT ENGINEERING COLLEGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK227347</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Urvish shah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9638858516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160123109016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Electrical</x:t>
-  </x:si>
-  <x:si>
-    <x:t>urvishshah34@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gandhinager institute of technology</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK543028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>heet patel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7874425073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150990119026</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mechanical</x:t>
-  </x:si>
-  <x:si>
-    <x:t>heetpatel146@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHROFF S R ROTARY INSTITUTE OF CHEMICAL TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK927292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAY PATEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8347243800</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150990119028</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jaypatel221197@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK427390</x:t>
-  </x:si>
-  <x:si>
-    <x:t>utkarsh gandhi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8200386005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150990119007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UTKARSHGANDHI13@GMAIL.COM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK534671</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gabani Milan Ganeshbhai</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9924080943</x:t>
-  </x:si>
-  <x:si>
-    <x:t>160433106011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Civil engineering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>milangabani58@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHANTILAL SHAH ENGINEERING COLLEGE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK245827</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karan Patel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7383752677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161250106020</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BE. Civil ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>karanpatel12908@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SHREE SWAMINARAYAN INSTITUTE OF TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK808849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Saurabh Rana</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7405852597</x:t>
-  </x:si>
-  <x:si>
-    <x:t>140330106100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rsaurabh9608@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAHATMA GANDHI INSTITUTE OF TECHNICAL EDUCATION &amp; RESEARCH CENTRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK970969</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Parekh Dhaval Balkrishna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9978435436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141030106011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Civil Engineering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dhavalparekh3298@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OM INSTITUTE OF TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK477527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sandupama Wanniarachchi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7573904725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150280106128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Civil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sandupama95@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L. D. COLLEGE OF ENGINEERING</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK756335</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Induni lakshika abeysinghe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9726937731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150280106129</x:t>
-  </x:si>
-  <x:si>
-    <x:t>induniabeysinghe@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK980065</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kapadiya mugdhaxi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9033164269</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150170124018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mugdhaxikapadiya99@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK909286</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nishant Parmar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9638689831</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150833106034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nitsparmar7@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DR. SUBHASH TECHNICAL CAMPUS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK571776</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VATSAL SHAH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8128389693</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150990119041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>vatsalshah7597@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK956032</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kiran Sofia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9978145966</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150770106024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dodiyakiran12@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SILVER OAK COLLEGE OF ENGINEERING &amp; TECHNOLOGY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK076732</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nihar patel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8347776689</x:t>
-  </x:si>
-  <x:si>
-    <x:t>161310109041</x:t>
-  </x:si>
-  <x:si>
-    <x:t>niharpatel.ele16@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Adani Institute of Infrastructure Engineering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK531035</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upadhyay Swapnil Ratanlal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9712370500</x:t>
-  </x:si>
-  <x:si>
-    <x:t>141030106024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>civil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>swapnilupadhyay24697@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK919203</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pinkal patel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8980954707</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150990119035</x:t>
-  </x:si>
-  <x:si>
-    <x:t>pinkalpatel717@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK282172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vinothan sundaralingam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8141246393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>150280106127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vsvinothan.vv@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WK804512</x:t>
+    <x:t>DABHI KISHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9714015790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160973106001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dabhikishan103@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK082500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KATARIYA NISHITH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9067196071</x:t>
+  </x:si>
+  <x:si>
+    <x:t>160573109014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELECTRICAL ENGG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>katariyanishith36@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK936446</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -856,348 +1033,348 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="G4" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="D8" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
+      <x:c r="E8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
+      <x:c r="G8" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>52</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
+      <x:c r="D9" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="D9" s="0" t="s">
+      <x:c r="G9" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
+      <x:c r="H9" s="0" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
+      <x:c r="D10" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C10" s="0" t="s">
+      <x:c r="E10" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
+      <x:c r="F10" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="E10" s="0" t="s">
+      <x:c r="G10" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="s">
+      <x:c r="H10" s="0" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="D11" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
+      <x:c r="E11" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
+      <x:c r="F11" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="F11" s="0" t="s">
+      <x:c r="G11" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="G11" s="0" t="s">
+      <x:c r="H11" s="0" t="s">
         <x:v>74</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
+      <x:c r="D12" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D12" s="0" t="s">
+      <x:c r="G12" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
+      <x:c r="H12" s="0" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="D13" s="0" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
+      <x:c r="E13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="D13" s="0" t="s">
+      <x:c r="G13" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
+      <x:c r="H13" s="0" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="D14" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
+      <x:c r="G14" s="0" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
+      <x:c r="H14" s="0" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
+      <x:c r="D15" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
+      <x:c r="G15" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="s">
+      <x:c r="D16" s="0" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F16" s="0" t="s">
         <x:v>103</x:v>
@@ -1220,7 +1397,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
         <x:v>12</x:v>
@@ -1229,7 +1406,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H17" s="0" t="s">
         <x:v>110</x:v>
@@ -1246,16 +1423,16 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
         <x:v>116</x:v>
@@ -1272,97 +1449,383 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="0" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>138</x:v>
+      <x:c r="H23" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
+      <x:c r="A25" s="0" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8">
+      <x:c r="A26" s="0" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8">
+      <x:c r="A27" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:8">
+      <x:c r="A28" s="0" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:8">
+      <x:c r="A29" s="0" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="G29" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:8">
+      <x:c r="A30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="G30" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:8">
+      <x:c r="A31" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="G31" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:8">
+      <x:c r="A32" s="0" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="G32" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:8">
+      <x:c r="A33" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="G33" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>197</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/public/documents/Unconfirmed-Revit.xlsx
+++ b/public/documents/Unconfirmed-Revit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15" count="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95" count="95">
   <x:si>
     <x:t>name</x:t>
   </x:si>
@@ -349,6 +349,30 @@
     <x:t>WK980065</x:t>
   </x:si>
   <x:si>
+    <x:t>Dave Pratikkumar Jayeshbhai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9978921363</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140373109023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELECTRICAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pratik.dave90@ymail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PARUL INSTITUTE OF ENGINEERING &amp; TECHNOLOGY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK204529</x:t>
+  </x:si>
+  <x:si>
     <x:t>Parekh Dhaval Balkrishna</x:t>
   </x:si>
   <x:si>
@@ -575,6 +599,27 @@
   </x:si>
   <x:si>
     <x:t>WK481934</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shah Pooja Sanjaybhai</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9825964113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130800106042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>080</x:t>
+  </x:si>
+  <x:si>
+    <x:t>shahpooja277@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VADODARA INSTITUTE OF ENGINEERING</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WK506034</x:t>
   </x:si>
   <x:si>
     <x:t>DABHI KISHAN</x:t>
@@ -1426,157 +1471,157 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F18" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="H18" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="F19" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="H19" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F20" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H20" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F21" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F22" s="0" t="s">
-        <x:v>140</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="H22" s="0" t="s">
-        <x:v>141</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="0" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>144</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F23" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H23" s="0" t="s">
-        <x:v>146</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="0" t="s">
-        <x:v>147</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>148</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>149</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>84</x:v>
@@ -1585,24 +1630,24 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F24" s="0" t="s">
-        <x:v>150</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="H24" s="0" t="s">
-        <x:v>151</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="0" t="s">
-        <x:v>152</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>153</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>154</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>84</x:v>
@@ -1611,221 +1656,273 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F25" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
         <x:v>86</x:v>
       </x:c>
       <x:c r="H25" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>159</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F26" s="0" t="s">
-        <x:v>160</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="H26" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F27" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H27" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F28" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="H28" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F29" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H29" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F30" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="H30" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F31" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H31" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="F32" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H32" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="0" t="s">
-        <x:v>192</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="F33" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:8">
+      <x:c r="A34" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="G34" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>197</x:v>
+      <x:c r="H34" s="0" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:8">
+      <x:c r="A35" s="0" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="G35" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
